--- a/biology/Botanique/Villa_Bonanno/Villa_Bonanno.xlsx
+++ b/biology/Botanique/Villa_Bonanno/Villa_Bonanno.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Villa Bonanno est le nom d'un jardin public de 3 hectares situé à Palerme. 
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1905, avec l'agencement de la Piazza Vittoria, la Villa Bonanno a été conçue par Giuseppe Damiani Almeyda, une villa nommée d'après le maire de Palerme Pietro Bonanno qui voulait que ces travaux soient effectués, ce qui a réaménagé le sol en face du Palais des Normands. Des travaux de réaménagement ont eu lieu, qui se sont terminés fin 2013. L'intervention était l'une de celles financées par l'Union européenne avec un montant total d'environ 8 millions d'euros pour la restauration de trois places dans le centre historique de Palerme: Piazza Bologni, Piazza Marina et Piazza della Vittoria. 
 </t>
@@ -543,7 +557,9 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La villa se caractérise principalement par ses palmiers luxuriants et certains éléments d'un intérêt considérable: "La maison du gardien" conçue par Almeyda, le buste en marbre du maire Bonanno avec la base conçue par Ernesto Basile, le monument dédié à Philippe IV, réalisé par Nunzio Morello en 1856, mais conçu en 1661 par Carlo D'Aprile avec la collaboration de la famille Serpotta, et les ruines de deux maisons patriciennes romaines mises à jour au 19e siècle. 
 </t>
@@ -574,7 +590,9 @@
           <t>Images</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Maisons romaines à Villa Bonanno .
